--- a/Metrics.xlsx
+++ b/Metrics.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ba650176d78d5c06/Documents/GitHub/Data Extract from Web/pathway-explorer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SBTi\github\pathway-database\pathway-database\pathway-explorer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="90" documentId="8_{1AB03318-525D-4144-8325-ED1A91BAED1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1929E412-A7AB-4DC8-AF8D-94F18726BB50}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D84068-014E-428C-874B-9333D1062121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2892" yWindow="1464" windowWidth="15336" windowHeight="10776" xr2:uid="{FC46EF8D-C087-4E9F-8E35-62239C79E73D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FC46EF8D-C087-4E9F-8E35-62239C79E73D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -183,15 +183,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -199,15 +205,87 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -545,230 +623,279 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91340037-6714-4BF1-97F3-26E8B9AC659C}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="18.5546875" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" customWidth="1"/>
-    <col min="8" max="8" width="27.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" customWidth="1"/>
+    <col min="8" max="8" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
+    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
+    <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="8" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Metrics.xlsx
+++ b/Metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SBTi\github\pathway-database\pathway-database\pathway-explorer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D84068-014E-428C-874B-9333D1062121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3A6DF9-EEB1-4DBC-9721-D6817A846354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FC46EF8D-C087-4E9F-8E35-62239C79E73D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
   <si>
     <t xml:space="preserve">Activity </t>
   </si>
@@ -263,14 +263,17 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -281,11 +284,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -623,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91340037-6714-4BF1-97F3-26E8B9AC659C}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,262 +638,277 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="7" t="s">
+      <c r="A3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
+      <c r="A4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="7" t="s">
+      <c r="A11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="7" t="s">
+      <c r="A13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="4" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
+  <mergeCells count="1">
     <mergeCell ref="B2:B4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Metrics.xlsx
+++ b/Metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SBTi\github\pathway-database\pathway-database\pathway-explorer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3A6DF9-EEB1-4DBC-9721-D6817A846354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8A56E7-39CE-4734-82CD-4C2B5B37621F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FC46EF8D-C087-4E9F-8E35-62239C79E73D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="43">
   <si>
     <t xml:space="preserve">Activity </t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>Metrics</t>
+  </si>
+  <si>
+    <t>XXX</t>
   </si>
 </sst>
 </file>
@@ -275,6 +278,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -283,9 +289,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -624,7 +627,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,10 +667,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -690,10 +693,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="6"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="3" t="s">
         <v>15</v>
       </c>
@@ -714,10 +717,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
@@ -738,13 +741,15 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -752,7 +757,7 @@
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -766,7 +771,7 @@
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -780,7 +785,7 @@
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -794,7 +799,7 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -808,7 +813,7 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -834,7 +839,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="2"/>
@@ -858,7 +863,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -884,7 +889,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B13" s="2"/>

--- a/Metrics.xlsx
+++ b/Metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SBTi\github\pathway-database\pathway-database\pathway-explorer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8A56E7-39CE-4734-82CD-4C2B5B37621F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39ACA534-20AC-4974-B364-816DCCB63656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FC46EF8D-C087-4E9F-8E35-62239C79E73D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
   <si>
     <t xml:space="preserve">Activity </t>
   </si>
@@ -163,6 +163,12 @@
   </si>
   <si>
     <t>XXX</t>
+  </si>
+  <si>
+    <t>ffff</t>
+  </si>
+  <si>
+    <t>fff</t>
   </si>
 </sst>
 </file>
@@ -627,7 +633,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,9 +756,15 @@
       <c r="C5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>

--- a/Metrics.xlsx
+++ b/Metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SBTi\github\pathway-database\pathway-database\pathway-explorer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39ACA534-20AC-4974-B364-816DCCB63656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CECE151-AD95-43D4-AF11-107F173A92FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FC46EF8D-C087-4E9F-8E35-62239C79E73D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
   <si>
     <t xml:space="preserve">Activity </t>
   </si>
@@ -160,15 +160,6 @@
   </si>
   <si>
     <t>Metrics</t>
-  </si>
-  <si>
-    <t>XXX</t>
-  </si>
-  <si>
-    <t>ffff</t>
-  </si>
-  <si>
-    <t>fff</t>
   </si>
 </sst>
 </file>
@@ -284,9 +275,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -294,6 +282,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -632,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91340037-6714-4BF1-97F3-26E8B9AC659C}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,10 +664,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -699,10 +690,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="7"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="3" t="s">
         <v>15</v>
       </c>
@@ -723,10 +712,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="8"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
@@ -747,31 +734,19 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="A5" s="8"/>
       <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="A6" s="8"/>
       <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
@@ -783,9 +758,7 @@
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="A7" s="8"/>
       <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
@@ -797,9 +770,7 @@
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="A8" s="8"/>
       <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
@@ -811,9 +782,7 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="A9" s="8"/>
       <c r="B9" s="2" t="s">
         <v>26</v>
       </c>
@@ -825,7 +794,7 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -851,9 +820,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="A11" s="8"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3" t="s">
         <v>30</v>
@@ -875,7 +842,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -901,9 +868,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="A13" s="8"/>
       <c r="B13" s="2"/>
       <c r="C13" s="3" t="s">
         <v>38</v>
@@ -925,8 +890,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
